--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17302D-38E0-4B9C-A8CD-668F994C58D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EE66F-88E5-4A5C-9494-3F00E36D16A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="0" windowWidth="20310" windowHeight="14910" activeTab="1" xr2:uid="{92810BD6-C4FE-44F7-BDA1-6EEEB686DC43}"/>
+    <workbookView xWindow="-26925" yWindow="435" windowWidth="24945" windowHeight="20160" xr2:uid="{92810BD6-C4FE-44F7-BDA1-6EEEB686DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,30 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Shares</t>
   </si>
@@ -75,9 +53,6 @@
     <t>HK Listing: 9988</t>
   </si>
   <si>
-    <t>CEO: Daniel Zhang</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -199,12 +174,136 @@
   </si>
   <si>
     <t>CFFO</t>
+  </si>
+  <si>
+    <t>CEO: Eddie Wu, Daniel Zhang, Jack Ma</t>
+  </si>
+  <si>
+    <t>Taobao</t>
+  </si>
+  <si>
+    <t>Tmall</t>
+  </si>
+  <si>
+    <t>CFO: Toby Xu</t>
+  </si>
+  <si>
+    <t>FQ123</t>
+  </si>
+  <si>
+    <t>FQ223</t>
+  </si>
+  <si>
+    <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ423</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>Other - Eliminations</t>
+  </si>
+  <si>
+    <t>Headcount</t>
+  </si>
+  <si>
+    <t>Price RMB</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>MC RMB</t>
+  </si>
+  <si>
+    <t>Cash USD</t>
+  </si>
+  <si>
+    <t>Debt USD</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>China GDP</t>
+  </si>
+  <si>
+    <t>China 10Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -248,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,7 +364,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -275,13 +373,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DF28F8C2-3168-48EC-97D7-88C1B058DD3B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,16 +403,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34591</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34591</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>141371</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -321,8 +427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="47625"/>
-          <a:ext cx="0" cy="6457950"/>
+          <a:off x="12512341" y="0"/>
+          <a:ext cx="0" cy="6397792"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -347,15 +453,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>593507</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>593507</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -371,8 +477,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10029825" y="0"/>
-          <a:ext cx="0" cy="6457950"/>
+          <a:off x="21272610" y="0"/>
+          <a:ext cx="0" cy="10488996"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -399,9 +505,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +545,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -695,95 +801,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCFBA1B-3870-4960-86CF-D4C6C2448885}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1">
-        <v>115.9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>95.21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <f>21401/8</f>
-        <v>2675.125</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <f>+O3/8</f>
+        <v>2449.375</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>19595</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>310046.98749999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>233204.99374999999</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3">
+        <f>+O2*O3</f>
+        <v>1802740</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1029873</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="3">
-        <f>321262+152376+35207+9807+237221+200189</f>
-        <v>956062</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="3">
-        <f>3606+9831+38335+97381</f>
-        <v>149153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="O6" s="3">
+        <v>207937</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="3" cm="1">
-        <f t="array" ref="L7">L4-((L5-L6)/RMB)</f>
-        <v>190327.55129821959</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="3">
+        <f>+L4-L5+L6</f>
+        <v>233204.99374999999</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f>+O4-O5+O6</f>
+        <v>980804</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9">
         <v>6.74</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="K15" t="s">
-        <v>39</v>
+      <c r="K16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -793,25 +961,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A84FB6-2DDF-41E8-BD94-FC380ED24DA7}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="2"/>
+    <col min="3" max="12" width="9.140625" style="2"/>
+    <col min="13" max="15" width="9.140625" style="2" customWidth="1"/>
+    <col min="16" max="22" width="9.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="7">
         <v>44286</v>
@@ -819,803 +989,2425 @@
       <c r="J1" s="7">
         <v>44651</v>
       </c>
-      <c r="N1" s="8">
+      <c r="K1" s="7"/>
+      <c r="L1" s="13">
+        <v>44834</v>
+      </c>
+      <c r="M1" s="13">
+        <v>44926</v>
+      </c>
+      <c r="N1" s="13">
+        <f>+J1+365</f>
+        <v>45016</v>
+      </c>
+      <c r="O1" s="13">
+        <v>45107</v>
+      </c>
+      <c r="P1" s="13">
+        <v>45199</v>
+      </c>
+      <c r="Q1" s="13">
+        <v>45291</v>
+      </c>
+      <c r="R1" s="13">
+        <f>+N1+365</f>
+        <v>45381</v>
+      </c>
+      <c r="S1" s="13">
+        <f>+R1+92</f>
+        <v>45473</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="X1" s="15">
+        <v>42094</v>
+      </c>
+      <c r="Y1" s="15">
+        <v>42460</v>
+      </c>
+      <c r="Z1" s="15">
+        <v>42825</v>
+      </c>
+      <c r="AA1" s="15">
+        <v>43190</v>
+      </c>
+      <c r="AB1" s="15">
+        <v>43555</v>
+      </c>
+      <c r="AC1" s="15">
+        <v>43921</v>
+      </c>
+      <c r="AD1" s="15">
         <v>44286</v>
       </c>
-      <c r="O1" s="8">
+      <c r="AE1" s="15">
         <v>44651</v>
       </c>
-      <c r="P1" s="8">
-        <f>O1+365</f>
+      <c r="AF1" s="15">
+        <f>AE1+365</f>
         <v>45016</v>
       </c>
-      <c r="Q1" s="8">
-        <f>P1+366</f>
+      <c r="AG1" s="15">
+        <f>AF1+366</f>
         <v>45382</v>
       </c>
-      <c r="R1" s="8">
-        <f t="shared" ref="Q1:U1" si="0">Q1+365</f>
+      <c r="AH1" s="15">
+        <f t="shared" ref="AH1:AJ1" si="0">AG1+365</f>
         <v>45747</v>
       </c>
-      <c r="S1" s="8">
+      <c r="AI1" s="15">
         <f t="shared" si="0"/>
         <v>46112</v>
       </c>
-      <c r="T1" s="8">
+      <c r="AJ1" s="15">
         <f t="shared" si="0"/>
         <v>46477</v>
       </c>
-      <c r="U1" s="8">
-        <f>T1+366</f>
+      <c r="AK1" s="15">
+        <f>AJ1+366</f>
         <v>46843</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2">
+        <v>2015</v>
+      </c>
+      <c r="Y2">
+        <v>2016</v>
+      </c>
+      <c r="Z2">
+        <v>2017</v>
+      </c>
+      <c r="AA2">
+        <v>2018</v>
+      </c>
+      <c r="AB2">
+        <v>2019</v>
+      </c>
+      <c r="AC2">
+        <v>2020</v>
+      </c>
+      <c r="AD2">
         <v>2021</v>
       </c>
-      <c r="O2">
-        <f>N2+1</f>
+      <c r="AE2">
+        <f>AD2+1</f>
         <v>2022</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:Z2" si="1">O2+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AP2" si="1">AE2+1</f>
         <v>2023</v>
       </c>
-      <c r="Q2">
+      <c r="AG2">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="R2">
+      <c r="AH2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="U2">
+      <c r="AK2">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="V2">
+      <c r="AL2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="W2">
+      <c r="AM2">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="X2">
+      <c r="AN2">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="Z2">
+      <c r="AP2">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>63224</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>63421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>63797</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>72526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>3370</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>14700</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>17800</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>17900</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f>F4+F3+F5</f>
-        <v>130391</v>
+        <v>63224</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
-        <f>J4+J3+J5</f>
-        <v>140330</v>
-      </c>
-      <c r="N6" s="3">
-        <v>501683</v>
-      </c>
-      <c r="O6" s="3">
-        <v>592705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63421</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>66877</v>
+      </c>
+      <c r="M6" s="4">
+        <v>91694</v>
+      </c>
+      <c r="N6" s="4">
+        <v>60545</v>
+      </c>
+      <c r="O6" s="4">
+        <v>79661</v>
+      </c>
+      <c r="P6" s="4">
+        <v>68661</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>92113</v>
+      </c>
+      <c r="R6" s="4">
+        <v>63574</v>
+      </c>
+      <c r="S6" s="4">
+        <v>80115</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>13416</v>
+        <v>63797</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4">
-        <v>14335</v>
-      </c>
-      <c r="N7" s="3">
-        <v>48851</v>
-      </c>
-      <c r="O7" s="3">
-        <v>61078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>72526</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>22559</v>
+      </c>
+      <c r="M7" s="4">
+        <v>31042</v>
+      </c>
+      <c r="N7" s="4">
+        <v>25212</v>
+      </c>
+      <c r="O7" s="4">
+        <v>30167</v>
+      </c>
+      <c r="P7" s="4">
+        <v>23899</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>31649</v>
+      </c>
+      <c r="R7" s="4">
+        <v>24690</v>
+      </c>
+      <c r="S7" s="4">
+        <v>27306</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>8123</v>
+        <v>3370</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
-        <v>10445</v>
-      </c>
-      <c r="N8" s="3">
-        <v>35442</v>
-      </c>
-      <c r="O8" s="3">
-        <v>43491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4383</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>4299</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4329</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4132</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5125</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5094</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5308</v>
+      </c>
+      <c r="R8" s="4">
+        <v>4952</v>
+      </c>
+      <c r="S8" s="4">
+        <v>5952</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>9959</v>
+        <f>F7+F6+F8</f>
+        <v>130391</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
-        <v>11582</v>
-      </c>
-      <c r="N9" s="3">
-        <v>37258</v>
-      </c>
-      <c r="O9" s="3">
-        <v>46107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>J7+J6+J8</f>
+        <v>140330</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <f>SUM(L6:L8)</f>
+        <v>93735</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM(M6:M8)</f>
+        <v>127065</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM(N6:N8)</f>
+        <v>89889</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM(O6:O8)</f>
+        <v>114953</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM(P6:P8)</f>
+        <v>97654</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM(Q6:Q8)</f>
+        <v>129070</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM(R6:R8)</f>
+        <v>93216</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM(S6:S8)</f>
+        <v>113373</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="AD9" s="3">
+        <v>501683</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>592705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>16865</v>
+        <v>13416</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
-        <v>18971</v>
-      </c>
-      <c r="M10" s="3">
-        <v>40016</v>
-      </c>
-      <c r="N10" s="3">
-        <v>60558</v>
-      </c>
-      <c r="O10" s="3">
-        <v>74568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>14335</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>16046</v>
+      </c>
+      <c r="M10" s="4">
+        <v>19824</v>
+      </c>
+      <c r="N10" s="4">
+        <v>18915</v>
+      </c>
+      <c r="O10" s="4">
+        <v>22123</v>
+      </c>
+      <c r="P10" s="4">
+        <v>24511</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>28516</v>
+      </c>
+      <c r="R10" s="4">
+        <v>27448</v>
+      </c>
+      <c r="S10" s="4">
+        <v>29293</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="AD10" s="3">
+        <v>48851</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>61078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>8047</v>
+        <v>8123</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4">
-        <v>8005</v>
-      </c>
-      <c r="M11" s="3">
-        <v>29094</v>
-      </c>
-      <c r="N11" s="3">
-        <v>31186</v>
-      </c>
-      <c r="O11" s="3">
-        <v>32272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10445</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>13381</v>
+      </c>
+      <c r="M11" s="4">
+        <v>13397</v>
+      </c>
+      <c r="N11" s="4">
+        <v>12340</v>
+      </c>
+      <c r="O11" s="4">
+        <v>14450</v>
+      </c>
+      <c r="P11" s="4">
+        <v>15564</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>15160</v>
+      </c>
+      <c r="R11" s="4">
+        <v>14628</v>
+      </c>
+      <c r="S11" s="4">
+        <v>16229</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="AD11" s="3">
+        <v>35442</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <v>594</v>
+        <v>9959</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
-        <v>384</v>
-      </c>
-      <c r="M12" s="3">
-        <v>4497</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2311</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <f>SUM(F6:F12)</f>
-        <v>187395</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
-        <f>SUM(J6:J12)</f>
-        <v>204052</v>
-      </c>
-      <c r="M13" s="5">
-        <v>509711</v>
-      </c>
-      <c r="N13" s="5">
-        <f>SUM(N6:N12)</f>
-        <v>717289</v>
-      </c>
-      <c r="O13" s="5">
-        <f>SUM(O6:O12)</f>
-        <v>853062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11582</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>18282</v>
+      </c>
+      <c r="M12" s="4">
+        <v>23023</v>
+      </c>
+      <c r="N12" s="4">
+        <v>18915</v>
+      </c>
+      <c r="O12" s="4">
+        <v>23164</v>
+      </c>
+      <c r="P12" s="4">
+        <v>22823</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>28476</v>
+      </c>
+      <c r="R12" s="4">
+        <v>24557</v>
+      </c>
+      <c r="S12" s="4">
+        <v>26811</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="AD12" s="3">
+        <v>37258</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>16865</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>18971</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
+        <v>27035</v>
+      </c>
+      <c r="M13" s="4">
+        <v>27364</v>
+      </c>
+      <c r="N13" s="4">
+        <v>24742</v>
+      </c>
+      <c r="O13" s="4">
+        <v>25065</v>
+      </c>
+      <c r="P13" s="4">
+        <v>27648</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>28066</v>
+      </c>
+      <c r="R13" s="4">
+        <v>25595</v>
+      </c>
+      <c r="S13" s="4">
+        <v>26549</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="AC13" s="3">
+        <v>40016</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>60558</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>74568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <v>125454</v>
+        <v>8047</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4">
-        <v>138945</v>
-      </c>
-      <c r="M14" s="3">
-        <v>282367</v>
-      </c>
-      <c r="N14" s="3">
-        <v>421205</v>
-      </c>
-      <c r="O14" s="3">
-        <v>539450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8005</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>5228</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4261</v>
+      </c>
+      <c r="N14" s="4">
+        <v>4989</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5381</v>
+      </c>
+      <c r="P14" s="4">
+        <v>5779</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>5040</v>
+      </c>
+      <c r="R14" s="4">
+        <v>4945</v>
+      </c>
+      <c r="S14" s="4">
+        <v>5581</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="AC14" s="3">
+        <v>29094</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>31186</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>32272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f>F13-F14</f>
-        <v>61941</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" ref="G15:J15" si="2">G13-G14</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4">
-        <f t="shared" si="2"/>
-        <v>65107</v>
-      </c>
-      <c r="M15" s="3">
-        <f>M13-M14</f>
-        <v>227344</v>
-      </c>
-      <c r="N15" s="3">
-        <f>N13-N14</f>
-        <v>296084</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" ref="O15" si="3">O13-O14</f>
-        <v>313612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="AC15" s="3">
+        <v>4497</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>2311</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <v>13302</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
-        <v>10944</v>
-      </c>
-      <c r="M16" s="3">
-        <v>43080</v>
-      </c>
-      <c r="N16" s="3">
-        <v>57236</v>
-      </c>
-      <c r="O16" s="3">
-        <v>55465</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
-        <v>25153</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <v>27200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>50673</v>
-      </c>
-      <c r="N17" s="3">
-        <v>81519</v>
-      </c>
-      <c r="O17" s="3">
-        <v>119799</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <f>216-14889+48142</f>
+        <v>33469</v>
+      </c>
+      <c r="M16" s="4">
+        <f>50334+225-17737</f>
+        <v>32822</v>
+      </c>
+      <c r="N16" s="4">
+        <f>53303+232-15125</f>
+        <v>38410</v>
+      </c>
+      <c r="O16" s="4">
+        <f>45798-17027+249</f>
+        <v>29020</v>
+      </c>
+      <c r="P16" s="4">
+        <f>48052-17518+277</f>
+        <v>30811</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>47023+374-21377</f>
+        <v>26020</v>
+      </c>
+      <c r="R16" s="4">
+        <f>51458+397-20370</f>
+        <v>31485</v>
+      </c>
+      <c r="S16" s="4">
+        <f>47001-22020+419</f>
+        <v>25400</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <f>SUM(F9:F15)</f>
+        <v>187395</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
+        <f>SUM(J9:J15)</f>
+        <v>204052</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K9:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" ref="L17:P17" si="2">SUM(L9:L16)</f>
+        <v>207176</v>
+      </c>
+      <c r="M17" s="6">
+        <f>SUM(M9:M16)</f>
+        <v>247756</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>208200</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="2"/>
+        <v>234156</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="2"/>
+        <v>224790</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>SUM(Q9:Q16)</f>
+        <v>260348</v>
+      </c>
+      <c r="R17" s="6">
+        <f>SUM(R9:R16)</f>
+        <v>221874</v>
+      </c>
+      <c r="S17" s="6">
+        <f>SUM(S9:S16)</f>
+        <v>243236</v>
+      </c>
+      <c r="T17" s="6">
+        <f>+P17*1.05</f>
+        <v>236029.5</v>
+      </c>
+      <c r="U17" s="6">
+        <f>+Q17*1.05</f>
+        <v>273365.40000000002</v>
+      </c>
+      <c r="V17" s="6">
+        <f>+R17*1.05</f>
+        <v>232967.7</v>
+      </c>
+      <c r="X17" s="5">
+        <v>76204</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>101143</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>158273</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>250266</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>376844</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>509711</v>
+      </c>
+      <c r="AD17" s="5">
+        <f>SUM(AD9:AD15)</f>
+        <v>717289</v>
+      </c>
+      <c r="AE17" s="5">
+        <f>SUM(AE9:AE15)</f>
+        <v>853062</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>868867</v>
+      </c>
+      <c r="AG17" s="5">
+        <f>SUM(O17:R17)</f>
+        <v>941168</v>
+      </c>
+      <c r="AH17" s="5">
+        <f>SUM(S17:V17)</f>
+        <v>985598.60000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
-        <v>27734</v>
+        <v>125454</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
-        <v>7415</v>
-      </c>
-      <c r="M18" s="3">
-        <v>28197</v>
-      </c>
-      <c r="N18" s="3">
-        <v>55224</v>
-      </c>
-      <c r="O18" s="3">
-        <v>31922</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>138945</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>131210</v>
+      </c>
+      <c r="M18" s="4">
+        <v>150005</v>
+      </c>
+      <c r="N18" s="4">
+        <v>138823</v>
+      </c>
+      <c r="O18" s="4">
+        <v>142347</v>
+      </c>
+      <c r="P18" s="4">
+        <v>139664</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>156214</v>
+      </c>
+      <c r="R18" s="4">
+        <v>148098</v>
+      </c>
+      <c r="S18" s="4">
+        <v>146106</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="X18" s="3">
+        <v>23834</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>34355</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>59483</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>107044</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>206929</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>282367</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>421205</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>539450</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>549695</v>
+      </c>
+      <c r="AG18" s="14">
+        <f>SUM(O18:R18)</f>
+        <v>586323</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4">
-        <f>SUM(F16:F18)</f>
-        <v>66189</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+        <f>F17-F18</f>
+        <v>61941</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" ref="G19:J19" si="3">G17-G18</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="4">
-        <f>SUM(J16:J18)</f>
-        <v>45559</v>
+        <f t="shared" si="3"/>
+        <v>65107</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <f>+L17-L18</f>
+        <v>75966</v>
       </c>
       <c r="M19" s="4">
-        <f>SUM(M16:M18)</f>
-        <v>121950</v>
+        <f>+M17-M18</f>
+        <v>97751</v>
       </c>
       <c r="N19" s="4">
-        <f>SUM(N16:N18)</f>
-        <v>193979</v>
+        <f t="shared" ref="N19:R19" si="4">+N17-N18</f>
+        <v>69377</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" ref="O19" si="4">SUM(O16:O18)</f>
-        <v>207186</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>91809</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="4"/>
+        <v>85126</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="4"/>
+        <v>104134</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="4"/>
+        <v>73776</v>
+      </c>
+      <c r="S19" s="4">
+        <f>+S17-S18</f>
+        <v>97130</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="X19" s="3">
+        <f t="shared" ref="X19:Y19" si="5">X17-X18</f>
+        <v>52370</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="5"/>
+        <v>66788</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" ref="Z19:AA19" si="6">Z17-Z18</f>
+        <v>98790</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="6"/>
+        <v>143222</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>AB17-AB18</f>
+        <v>169915</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>AC17-AC18</f>
+        <v>227344</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>AD17-AD18</f>
+        <v>296084</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" ref="AE19" si="7">AE17-AE18</f>
+        <v>313612</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>+AF17-AF18</f>
+        <v>319172</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>+AG17-AG18</f>
+        <v>354845</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
-        <f>F15-F19</f>
-        <v>-4248</v>
+        <v>13302</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
-        <f>J15-J19</f>
-        <v>19548</v>
+        <v>10944</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>15150</v>
       </c>
       <c r="M20" s="4">
-        <f>M15-M19</f>
-        <v>105394</v>
+        <v>13521</v>
       </c>
       <c r="N20" s="4">
-        <f>N15-N19</f>
-        <v>102105</v>
+        <v>13880</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" ref="O20" si="5">O15-O19</f>
-        <v>106426</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10465</v>
+      </c>
+      <c r="P20" s="4">
+        <v>14218</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>13488</v>
+      </c>
+      <c r="R20" s="4">
+        <v>14085</v>
+      </c>
+      <c r="S20" s="4">
+        <v>13373</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="X20" s="3">
+        <v>10658</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>13788</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>17060</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>22754</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>37435</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>43080</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>57236</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>55465</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>56744</v>
+      </c>
+      <c r="AG20" s="14">
+        <f t="shared" ref="AG20:AG22" si="8">SUM(O20:R20)</f>
+        <v>52256</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <f>111-1160+2115</f>
-        <v>1066</v>
+        <v>25153</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
-        <f>-36708-1189+1620</f>
-        <v>-36277</v>
-      </c>
-      <c r="M21" s="3">
-        <f>72956-5180+7439</f>
-        <v>75215</v>
-      </c>
-      <c r="N21" s="3">
-        <f>72794-4476+7582</f>
-        <v>75900</v>
-      </c>
-      <c r="O21" s="3">
-        <f>-15702-4909+10523</f>
-        <v>-10088</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>27200</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>22359</v>
+      </c>
+      <c r="M21" s="4">
+        <v>30628</v>
+      </c>
+      <c r="N21" s="4">
+        <v>24931</v>
+      </c>
+      <c r="O21" s="4">
+        <v>27047</v>
+      </c>
+      <c r="P21" s="4">
+        <v>25485</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>33783</v>
+      </c>
+      <c r="R21" s="4">
+        <v>28826</v>
+      </c>
+      <c r="S21" s="4">
+        <v>32696</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="X21" s="3">
+        <v>8513</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>11307</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>16314</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>27299</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>39780</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>50673</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>81519</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>119799</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>103496</v>
+      </c>
+      <c r="AG21" s="14">
+        <f t="shared" si="8"/>
+        <v>115141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
-        <f>F20+F21</f>
-        <v>-3182</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" ref="G22:J22" si="6">G20+G21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>27734</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4">
-        <f t="shared" si="6"/>
-        <v>-16729</v>
+        <v>7415</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>10591</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22:N22" si="7">M20+M21</f>
-        <v>180609</v>
+        <v>10327</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="7"/>
-        <v>178005</v>
+        <v>12832</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ref="O22" si="8">O20+O21</f>
-        <v>96338</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+        <v>7297</v>
+      </c>
+      <c r="P22" s="4">
+        <v>9408</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>11261</v>
+      </c>
+      <c r="R22" s="4">
+        <v>14019</v>
+      </c>
+      <c r="S22" s="4">
+        <v>13280</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="X22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>9205</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>12239</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>16241</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>24889</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>28197</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>55224</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>31922</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>42183</v>
+      </c>
+      <c r="AG22" s="14">
+        <f t="shared" si="8"/>
+        <v>41985</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4">
-        <f>-7049+5992</f>
-        <v>-1057</v>
+        <f>SUM(F20:F22)</f>
+        <v>66189</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
-        <f>-2079+3282</f>
-        <v>1203</v>
+        <f>SUM(J20:J22)</f>
+        <v>45559</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" ref="K23:R23" si="9">SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="9"/>
+        <v>48100</v>
       </c>
       <c r="M23" s="4">
-        <f>-20562-5733+9083</f>
-        <v>-17212</v>
+        <f t="shared" si="9"/>
+        <v>54476</v>
       </c>
       <c r="N23" s="4">
-        <f>-29278+6984-7294</f>
-        <v>-29588</v>
+        <f t="shared" ref="N23" si="10">SUM(N20:N22)</f>
+        <v>51643</v>
       </c>
       <c r="O23" s="4">
-        <v>-26815</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>44809</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="9"/>
+        <v>49111</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="9"/>
+        <v>58532</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="9"/>
+        <v>56930</v>
+      </c>
+      <c r="S23" s="4">
+        <f>SUM(S20:S22)</f>
+        <v>59349</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="X23" s="4">
+        <f t="shared" ref="X23:Y23" si="11">SUM(X20:X22)</f>
+        <v>26971</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="11"/>
+        <v>34300</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" ref="Z23:AA23" si="12">SUM(Z20:Z22)</f>
+        <v>45613</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="12"/>
+        <v>66294</v>
+      </c>
+      <c r="AB23" s="4">
+        <f>SUM(AB20:AB22)</f>
+        <v>102104</v>
+      </c>
+      <c r="AC23" s="4">
+        <f>SUM(AC20:AC22)</f>
+        <v>121950</v>
+      </c>
+      <c r="AD23" s="4">
+        <f>SUM(AD20:AD22)</f>
+        <v>193979</v>
+      </c>
+      <c r="AE23" s="4">
+        <f t="shared" ref="AE23:AG23" si="13">SUM(AE20:AE22)</f>
+        <v>207186</v>
+      </c>
+      <c r="AF23" s="4">
+        <f t="shared" si="13"/>
+        <v>202423</v>
+      </c>
+      <c r="AG23" s="4">
+        <f t="shared" si="13"/>
+        <v>209382</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4">
-        <f>F22+F23</f>
-        <v>-4239</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" ref="G24:J24" si="9">G22+G23</f>
+        <f>F19-F23</f>
+        <v>-4248</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <f>J19-J23</f>
+        <v>19548</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" ref="K24:R24" si="14">K19-K23</f>
         <v>0</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="9"/>
-        <v>-15526</v>
+      <c r="L24" s="4">
+        <f t="shared" si="14"/>
+        <v>27866</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24:N24" si="10">M22+M23</f>
-        <v>163397</v>
+        <f t="shared" si="14"/>
+        <v>43275</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="10"/>
-        <v>148417</v>
+        <f t="shared" ref="N24" si="15">N19-N23</f>
+        <v>17734</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" ref="O24" si="11">O22+O23</f>
-        <v>69523</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>47000</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="14"/>
+        <v>36015</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="14"/>
+        <v>45602</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="14"/>
+        <v>16846</v>
+      </c>
+      <c r="S24" s="4">
+        <f>S19-S23</f>
+        <v>37781</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="X24" s="4">
+        <f t="shared" ref="X24:Y24" si="16">X19-X23</f>
+        <v>25399</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="16"/>
+        <v>32488</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" ref="Z24:AA24" si="17">Z19-Z23</f>
+        <v>53177</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="17"/>
+        <v>76928</v>
+      </c>
+      <c r="AB24" s="4">
+        <f>AB19-AB23</f>
+        <v>67811</v>
+      </c>
+      <c r="AC24" s="4">
+        <f>AC19-AC23</f>
+        <v>105394</v>
+      </c>
+      <c r="AD24" s="4">
+        <f>AD19-AD23</f>
+        <v>102105</v>
+      </c>
+      <c r="AE24" s="4">
+        <f t="shared" ref="AE24:AG24" si="18">AE19-AE23</f>
+        <v>106426</v>
+      </c>
+      <c r="AF24" s="4">
+        <f t="shared" si="18"/>
+        <v>116749</v>
+      </c>
+      <c r="AG24" s="4">
+        <f t="shared" si="18"/>
+        <v>145463</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="1">
-        <f>F24/F26</f>
-        <v>-0.19247184889211769</v>
-      </c>
-      <c r="J25" s="1">
-        <f>J24/J26</f>
-        <v>-0.72548011775150689</v>
-      </c>
-      <c r="M25" s="1">
-        <f>M24/M26</f>
-        <v>7.65468940316687</v>
-      </c>
-      <c r="N25" s="1">
-        <f>N24/N26</f>
-        <v>6.7517514329906287</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" ref="O25" si="12">O24/O26</f>
-        <v>3.191031348969569</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <f>111-1160+2115</f>
+        <v>1066</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <f>-36708-1189+1620</f>
+        <v>-36277</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <f>-42452-1388+2944</f>
+        <v>-40896</v>
+      </c>
+      <c r="M25" s="4">
+        <f>15516-1550+1462</f>
+        <v>15428</v>
+      </c>
+      <c r="N25" s="4">
+        <f>10496-1736+1308</f>
+        <v>10068</v>
+      </c>
+      <c r="O25" s="4">
+        <f>-5898-1784+1364</f>
+        <v>-6318</v>
+      </c>
+      <c r="P25" s="4">
+        <f>5136-1854+1391</f>
+        <v>4673</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>-3500-2132+439</f>
+        <v>-5193</v>
+      </c>
+      <c r="R25" s="4">
+        <f>-5702-2177+2963</f>
+        <v>-4916</v>
+      </c>
+      <c r="S25" s="4">
+        <f>-1478-2188+257</f>
+        <v>-3409</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="X25" s="3">
+        <f>9455-2750+2486</f>
+        <v>9191</v>
+      </c>
+      <c r="Y25" s="3">
+        <f>52254-1946+2058</f>
+        <v>52366</v>
+      </c>
+      <c r="Z25" s="3">
+        <f>8559-2671+6086</f>
+        <v>11974</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>30495-3566+4160</f>
+        <v>31089</v>
+      </c>
+      <c r="AB25" s="3">
+        <f>44106-5190+221</f>
+        <v>39137</v>
+      </c>
+      <c r="AC25" s="3">
+        <f>72956-5180+7439</f>
+        <v>75215</v>
+      </c>
+      <c r="AD25" s="3">
+        <f>72794-4476+7582</f>
+        <v>75900</v>
+      </c>
+      <c r="AE25" s="3">
+        <f>-15702-4909+10523</f>
+        <v>-10088</v>
+      </c>
+      <c r="AF25" s="3">
+        <f>-11071-5918+5823</f>
+        <v>-11166</v>
+      </c>
+      <c r="AG25" s="14">
+        <f t="shared" ref="AG25" si="19">SUM(O25:R25)</f>
+        <v>-11754</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="3">
-        <v>22024</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3">
-        <v>21401</v>
-      </c>
-      <c r="M26" s="3">
-        <v>21346</v>
-      </c>
-      <c r="N26" s="3">
-        <v>21982</v>
-      </c>
-      <c r="O26" s="3">
-        <v>21787</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10">
-        <f>J13/F13-1</f>
-        <v>8.8887110114997725E-2</v>
-      </c>
-      <c r="N28" s="12">
-        <f>N13/M13-1</f>
-        <v>0.40724645926809511</v>
-      </c>
-      <c r="O28" s="12">
-        <f>O13/N13-1</f>
-        <v>0.18928632671071211</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="4">
+        <f>F24+F25</f>
+        <v>-3182</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" ref="G26:J26" si="20">G24+G25</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="20"/>
+        <v>-16729</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:R26" si="21">+L24+L25</f>
+        <v>-13030</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="21"/>
+        <v>58703</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="21"/>
+        <v>27802</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="21"/>
+        <v>40682</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="21"/>
+        <v>40688</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="21"/>
+        <v>40409</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="21"/>
+        <v>11930</v>
+      </c>
+      <c r="S26" s="4">
+        <f>+S24+S25</f>
+        <v>34372</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="X26" s="4">
+        <f t="shared" ref="X26" si="22">X24+X25</f>
+        <v>34590</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" ref="Y26:Z26" si="23">Y24+Y25</f>
+        <v>84854</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" si="23"/>
+        <v>65151</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" ref="AA26:AB26" si="24">AA24+AA25</f>
+        <v>108017</v>
+      </c>
+      <c r="AB26" s="4">
+        <f t="shared" si="24"/>
+        <v>106948</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" ref="AC26:AD26" si="25">AC24+AC25</f>
+        <v>180609</v>
+      </c>
+      <c r="AD26" s="4">
+        <f t="shared" si="25"/>
+        <v>178005</v>
+      </c>
+      <c r="AE26" s="4">
+        <f t="shared" ref="AE26:AG26" si="26">AE24+AE25</f>
+        <v>96338</v>
+      </c>
+      <c r="AF26" s="4">
+        <f t="shared" si="26"/>
+        <v>105583</v>
+      </c>
+      <c r="AG26" s="4">
+        <f t="shared" si="26"/>
+        <v>133709</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="4">
+        <f>-7049+5992</f>
+        <v>-1057</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <f>-2079+3282</f>
+        <v>1203</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <f>2572+4136-2034</f>
+        <v>4674</v>
+      </c>
+      <c r="M27" s="4">
+        <f>3820+893-1167</f>
+        <v>3546</v>
+      </c>
+      <c r="N27" s="4">
+        <f>3758-446-1648</f>
+        <v>1664</v>
+      </c>
+      <c r="O27" s="4">
+        <f>6022+2850</f>
+        <v>8872</v>
+      </c>
+      <c r="P27" s="4">
+        <f>5797+5764-1151</f>
+        <v>10410</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>4988+1613-3838</f>
+        <v>2763</v>
+      </c>
+      <c r="R27" s="4">
+        <f>5722+3208</f>
+        <v>8930</v>
+      </c>
+      <c r="S27" s="4">
+        <f>10063-1505</f>
+        <v>8558</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="X27" s="4">
+        <f>6416+1590+59</f>
+        <v>8065</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>8449+1730-171</f>
+        <v>10008</v>
+      </c>
+      <c r="Z27" s="4">
+        <f>13776+5027-2449</f>
+        <v>16354</v>
+      </c>
+      <c r="AA27" s="4">
+        <f>18199+20792-2681</f>
+        <v>36310</v>
+      </c>
+      <c r="AB27" s="4">
+        <f>16553-566-7652+286</f>
+        <v>8621</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>17212</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>29588</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>26815</v>
+      </c>
+      <c r="AF27" s="3">
+        <f>15549+8063</f>
+        <v>23612</v>
+      </c>
+      <c r="AG27" s="14">
+        <f t="shared" ref="AG27" si="27">SUM(O27:R27)</f>
+        <v>30975</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="4">
+        <f>F26+F27</f>
+        <v>-4239</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" ref="G28:J28" si="28">G26+G27</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="28"/>
+        <v>-15526</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:R28" si="29">+L26-L27</f>
+        <v>-17704</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="29"/>
+        <v>55157</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="29"/>
+        <v>26138</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="29"/>
+        <v>31810</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="29"/>
+        <v>30278</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="29"/>
+        <v>37646</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="29"/>
+        <v>3000</v>
+      </c>
+      <c r="S28" s="4">
+        <f>+S26-S27</f>
+        <v>25814</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="X28" s="4">
+        <f t="shared" ref="X28:Y28" si="30">+X26-X27</f>
+        <v>26525</v>
+      </c>
+      <c r="Y28" s="4">
+        <f t="shared" si="30"/>
+        <v>74846</v>
+      </c>
+      <c r="Z28" s="4">
+        <f t="shared" ref="Z28:AA28" si="31">+Z26-Z27</f>
+        <v>48797</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="31"/>
+        <v>71707</v>
+      </c>
+      <c r="AB28" s="4">
+        <f>+AB26-AB27</f>
+        <v>98327</v>
+      </c>
+      <c r="AC28" s="4">
+        <f>+AC26-AC27</f>
+        <v>163397</v>
+      </c>
+      <c r="AD28" s="4">
+        <f>+AD26-AD27</f>
+        <v>148417</v>
+      </c>
+      <c r="AE28" s="4">
+        <f>+AE26-AE27</f>
+        <v>69523</v>
+      </c>
+      <c r="AF28" s="4">
+        <f>+AF26-AF27</f>
+        <v>81971</v>
+      </c>
+      <c r="AG28" s="4">
+        <f>+AG26-AG27</f>
+        <v>102734</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="1">
+        <f>F28/F30</f>
+        <v>-0.19247184889211769</v>
+      </c>
+      <c r="J29" s="1">
+        <f>J28/J30</f>
+        <v>-0.72548011775150689</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
+        <f>+L28/L30</f>
+        <v>-0.83651483651483649</v>
+      </c>
+      <c r="M29" s="1">
+        <f>+M28/M30</f>
+        <v>2.6375765110941085</v>
+      </c>
+      <c r="N29" s="1">
+        <f>+N28/N30</f>
+        <v>1.2517000287328799</v>
+      </c>
+      <c r="O29" s="1">
+        <f>+O28/O30</f>
+        <v>1.5435753105590062</v>
+      </c>
+      <c r="P29" s="1">
+        <f>+P28/P30</f>
+        <v>1.4751047452012083</v>
+      </c>
+      <c r="Q29" s="1">
+        <f>+Q28/Q30</f>
+        <v>1.8525663107130554</v>
+      </c>
+      <c r="R29" s="1">
+        <f>+R28/R30</f>
+        <v>0.15015015015015015</v>
+      </c>
+      <c r="S29" s="1">
+        <f>+S28/S30</f>
+        <v>1.3173768818576168</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="X29" s="1">
+        <f t="shared" ref="X29:Y29" si="32">X28/X30</f>
+        <v>10.61</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="32"/>
+        <v>29.213895394223265</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" ref="Z29:AA29" si="33">Z28/Z30</f>
+        <v>18.965021375825884</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="33"/>
+        <v>27.473946360153256</v>
+      </c>
+      <c r="AB29" s="1">
+        <f>AB28/AB30</f>
+        <v>4.6849151896321706</v>
+      </c>
+      <c r="AC29" s="1">
+        <f>AC28/AC30</f>
+        <v>7.65468940316687</v>
+      </c>
+      <c r="AD29" s="1">
+        <f>AD28/AD30</f>
+        <v>6.7517514329906287</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" ref="AE29:AG29" si="34">AE28/AE30</f>
+        <v>3.191031348969569</v>
+      </c>
+      <c r="AF29" s="1">
+        <f t="shared" si="34"/>
+        <v>3.8823055792365255</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="34"/>
+        <v>5.0461840731872041</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="3">
+        <v>22024</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3">
+        <v>21401</v>
+      </c>
+      <c r="L30" s="3">
+        <v>21164</v>
+      </c>
+      <c r="M30" s="3">
+        <v>20912</v>
+      </c>
       <c r="N30" s="3">
+        <v>20882</v>
+      </c>
+      <c r="O30" s="3">
+        <v>20608</v>
+      </c>
+      <c r="P30" s="3">
+        <v>20526</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>20321</v>
+      </c>
+      <c r="R30" s="3">
+        <v>19980</v>
+      </c>
+      <c r="S30" s="3">
+        <v>19595</v>
+      </c>
+      <c r="X30" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>2562</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>2573</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>2610</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>20988</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>21346</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>21982</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>21787</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>21114</v>
+      </c>
+      <c r="AG30" s="3">
+        <f>AVERAGE(O30:R30)</f>
+        <v>20358.75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9">
+        <f>J17/F17-1</f>
+        <v>8.8887110114997725E-2</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9">
+        <f>P17/L17-1</f>
+        <v>8.5019500328223252E-2</v>
+      </c>
+      <c r="Q32" s="9">
+        <f>Q17/M17-1</f>
+        <v>5.0824198001259369E-2</v>
+      </c>
+      <c r="R32" s="9">
+        <f>R17/N17-1</f>
+        <v>6.567723342939491E-2</v>
+      </c>
+      <c r="S32" s="9">
+        <f>S17/O17-1</f>
+        <v>3.8777567092024068E-2</v>
+      </c>
+      <c r="T32" s="9">
+        <f>T17/P17-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="U32" s="9">
+        <f>U17/Q17-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V32" s="9">
+        <f>V17/R17-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Y32" s="11">
+        <f>Y17/X17-1</f>
+        <v>0.32726628523437085</v>
+      </c>
+      <c r="Z32" s="11">
+        <f>Z17/Y17-1</f>
+        <v>0.56484383496633472</v>
+      </c>
+      <c r="AA32" s="11">
+        <f>AA17/Z17-1</f>
+        <v>0.58122990023566867</v>
+      </c>
+      <c r="AB32" s="11">
+        <f>AB17/AA17-1</f>
+        <v>0.50577385661655994</v>
+      </c>
+      <c r="AC32" s="11">
+        <f>AC17/AB17-1</f>
+        <v>0.35257825519313024</v>
+      </c>
+      <c r="AD32" s="11">
+        <f>AD17/AC17-1</f>
+        <v>0.40724645926809511</v>
+      </c>
+      <c r="AE32" s="11">
+        <f>AE17/AD17-1</f>
+        <v>0.18928632671071211</v>
+      </c>
+      <c r="AF32" s="11">
+        <f>AF17/AE17-1</f>
+        <v>1.8527375501429022E-2</v>
+      </c>
+      <c r="AG32" s="11">
+        <f>AG17/AF17-1</f>
+        <v>8.3212965850929965E-2</v>
+      </c>
+      <c r="AH32" s="11">
+        <f>AH17/AG17-1</f>
+        <v>4.720793737143647E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="X33" s="11">
+        <f t="shared" ref="X33" si="35">+X19/X17</f>
+        <v>0.68723426591779957</v>
+      </c>
+      <c r="Y33" s="11">
+        <f t="shared" ref="Y33:Z33" si="36">+Y19/Y17</f>
+        <v>0.66033240066045107</v>
+      </c>
+      <c r="Z33" s="11">
+        <f>+Z19/Z17</f>
+        <v>0.62417468551174238</v>
+      </c>
+      <c r="AA33" s="11">
+        <f>+AA19/AA17</f>
+        <v>0.57227909504287433</v>
+      </c>
+      <c r="AB33" s="11">
+        <f>+AB19/AB17</f>
+        <v>0.45088949273439405</v>
+      </c>
+      <c r="AC33" s="11">
+        <f>+AC19/AC17</f>
+        <v>0.44602529668773089</v>
+      </c>
+      <c r="AD33" s="11">
+        <f t="shared" ref="AD33:AH33" si="37">+AD19/AD17</f>
+        <v>0.41278201673244674</v>
+      </c>
+      <c r="AE33" s="11">
+        <f t="shared" si="37"/>
+        <v>0.36763095765606718</v>
+      </c>
+      <c r="AF33" s="11">
+        <f t="shared" si="37"/>
+        <v>0.36734275786742965</v>
+      </c>
+      <c r="AG33" s="11">
+        <f t="shared" si="37"/>
+        <v>0.37702620573585161</v>
+      </c>
+      <c r="AH33" s="11">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S35" s="4">
+        <f>+S36-S42</f>
+        <v>821936</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" s="4">
+        <f>219167+176030+46141+53727+330935+203873</f>
+        <v>1029873</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="S37" s="4">
+        <f>158625+117340</f>
+        <v>275965</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="S38" s="4">
+        <v>194222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="S39" s="4">
+        <f>25272+259722</f>
+        <v>284994</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="S40" s="4">
+        <f>SUM(S36:S39)</f>
+        <v>1785054</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="S42" s="4">
+        <f>13567+55631+86574+35822+16343</f>
+        <v>207937</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="4">
+        <f>6868+54279</f>
+        <v>61147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" s="4">
+        <v>339279</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="S45" s="4">
+        <v>12449</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="S46" s="4">
+        <f>74384+4313</f>
+        <v>78697</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="S47" s="4">
+        <v>32185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="S48" s="4">
+        <f>1042457+10903</f>
+        <v>1053360</v>
+      </c>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="S49" s="4">
+        <f>SUM(S42:S48)</f>
+        <v>1785054</v>
+      </c>
+    </row>
+    <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4">
+        <v>45306</v>
+      </c>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4">
+        <v>33636</v>
+      </c>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="AC53" s="3">
+        <v>180607</v>
+      </c>
+      <c r="AD53" s="3">
         <v>231786</v>
       </c>
-      <c r="O30" s="3">
+      <c r="AE53" s="3">
         <v>142759</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>199752</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>182593</v>
+      </c>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="O54" s="4">
+        <v>6007</v>
+      </c>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4">
+        <v>11939</v>
+      </c>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="O55" s="4">
+        <f>+O53-O54</f>
+        <v>39299</v>
+      </c>
+      <c r="S55" s="4">
+        <f>+S53-S54</f>
+        <v>21697</v>
+      </c>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" s="4">
+        <v>224955</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>219260</v>
+      </c>
+      <c r="R57" s="4">
+        <v>204891</v>
+      </c>
+      <c r="S57" s="4">
+        <v>198162</v>
       </c>
     </row>
   </sheetData>

--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EE66F-88E5-4A5C-9494-3F00E36D16A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122C979-2EC8-420F-AD6E-7F9C0AFF5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26925" yWindow="435" windowWidth="24945" windowHeight="20160" xr2:uid="{92810BD6-C4FE-44F7-BDA1-6EEEB686DC43}"/>
+    <workbookView xWindow="7830" yWindow="2700" windowWidth="20760" windowHeight="10725" activeTab="1" xr2:uid="{92810BD6-C4FE-44F7-BDA1-6EEEB686DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Shares</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>China 10Y</t>
+  </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>FQ226</t>
+  </si>
+  <si>
+    <t>FQ326</t>
+  </si>
+  <si>
+    <t>FQ426</t>
   </si>
 </sst>
 </file>
@@ -301,8 +313,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -361,9 +373,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -372,13 +381,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,14 +415,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34591</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628072</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34591</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628072</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>141371</xdr:rowOff>
     </xdr:to>
@@ -427,8 +439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12512341" y="0"/>
-          <a:ext cx="0" cy="6397792"/>
+          <a:off x="13838514" y="0"/>
+          <a:ext cx="0" cy="10296486"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -453,14 +465,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>593507</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>15438</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>593507</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>15438</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -477,7 +489,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21272610" y="0"/>
+          <a:off x="21305455" y="0"/>
           <a:ext cx="0" cy="10488996"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -803,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCFBA1B-3870-4960-86CF-D4C6C2448885}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,7 +835,7 @@
         <v>39</v>
       </c>
       <c r="L2" s="1">
-        <v>95.21</v>
+        <v>105.29</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
@@ -862,7 +874,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>233204.99374999999</v>
+        <v>257894.69375000001</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" t="s">
@@ -913,7 +925,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>233204.99374999999</v>
+        <v>257894.69375000001</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -961,13 +973,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A84FB6-2DDF-41E8-BD94-FC380ED24DA7}">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AU57"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -976,100 +988,115 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="9.140625" style="2"/>
     <col min="13" max="15" width="9.140625" style="2" customWidth="1"/>
-    <col min="16" max="22" width="9.7109375" style="2" customWidth="1"/>
+    <col min="16" max="27" width="9.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11">
         <v>44286</v>
       </c>
-      <c r="J1" s="7">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11">
         <v>44651</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="13">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11">
         <v>44834</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="11">
         <v>44926</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="11">
         <f>+J1+365</f>
         <v>45016</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="11">
         <v>45107</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="11">
         <v>45199</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="11">
         <v>45291</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="11">
         <f>+N1+365</f>
         <v>45381</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="11">
         <f>+R1+92</f>
         <v>45473</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="X1" s="15">
+      <c r="T1" s="11">
+        <v>45565</v>
+      </c>
+      <c r="U1" s="11">
+        <v>45657</v>
+      </c>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AC1" s="12">
         <v>42094</v>
       </c>
-      <c r="Y1" s="15">
+      <c r="AD1" s="12">
         <v>42460</v>
       </c>
-      <c r="Z1" s="15">
+      <c r="AE1" s="12">
         <v>42825</v>
       </c>
-      <c r="AA1" s="15">
+      <c r="AF1" s="12">
         <v>43190</v>
       </c>
-      <c r="AB1" s="15">
+      <c r="AG1" s="12">
         <v>43555</v>
       </c>
-      <c r="AC1" s="15">
+      <c r="AH1" s="12">
         <v>43921</v>
       </c>
-      <c r="AD1" s="15">
+      <c r="AI1" s="12">
         <v>44286</v>
       </c>
-      <c r="AE1" s="15">
+      <c r="AJ1" s="12">
         <v>44651</v>
       </c>
-      <c r="AF1" s="15">
-        <f>AE1+365</f>
+      <c r="AK1" s="12">
+        <f>AJ1+365</f>
         <v>45016</v>
       </c>
-      <c r="AG1" s="15">
-        <f>AF1+366</f>
+      <c r="AL1" s="12">
+        <f>AK1+366</f>
         <v>45382</v>
       </c>
-      <c r="AH1" s="15">
-        <f t="shared" ref="AH1:AJ1" si="0">AG1+365</f>
+      <c r="AM1" s="12">
+        <f t="shared" ref="AM1:AO1" si="0">AL1+365</f>
         <v>45747</v>
       </c>
-      <c r="AI1" s="15">
+      <c r="AN1" s="12">
         <f t="shared" si="0"/>
         <v>46112</v>
       </c>
-      <c r="AJ1" s="15">
+      <c r="AO1" s="12">
         <f t="shared" si="0"/>
         <v>46477</v>
       </c>
-      <c r="AK1" s="15">
-        <f>AJ1+366</f>
+      <c r="AP1" s="12">
+        <f>AO1+366</f>
         <v>46843</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -1133,114 +1160,126 @@
       <c r="V2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X2">
+      <c r="W2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2">
         <v>2015</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <v>2016</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <v>2017</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <v>2018</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <v>2019</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <v>2020</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <v>2021</v>
       </c>
-      <c r="AE2">
-        <f>AD2+1</f>
+      <c r="AJ2">
+        <f>AI2+1</f>
         <v>2022</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AP2" si="1">AE2+1</f>
+      <c r="AK2">
+        <f t="shared" ref="AK2:AU2" si="1">AJ2+1</f>
         <v>2023</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="AM2">
+      <c r="AR2">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="AN2">
+      <c r="AS2">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="AO2">
+      <c r="AT2">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AP2">
+      <c r="AU2">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AI3" s="3">
         <v>14700</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AJ3" s="3">
         <v>17800</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AK3" s="3">
         <v>17900</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AL3" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AI4" s="13">
         <v>3.1E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AJ4" s="13">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AK4" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AL4" s="13">
         <v>2.7E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AM4" s="13">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1281,11 +1320,20 @@
       <c r="S6" s="4">
         <v>80115</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="T6" s="4">
+        <v>70364</v>
+      </c>
+      <c r="U6" s="4">
+        <v>100790</v>
+      </c>
       <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1326,11 +1374,20 @@
       <c r="S7" s="4">
         <v>27306</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="T7" s="4">
+        <v>22644</v>
+      </c>
+      <c r="U7" s="4">
+        <v>28726</v>
+      </c>
       <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1371,72 +1428,92 @@
       <c r="S8" s="4">
         <v>5952</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="T8" s="4">
+        <v>5986</v>
+      </c>
+      <c r="U8" s="4">
+        <v>6575</v>
+      </c>
       <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:47" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <f>F7+F6+F8</f>
         <v>130391</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16">
         <f>J7+J6+J8</f>
         <v>140330</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
-        <f>SUM(L6:L8)</f>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16">
+        <f t="shared" ref="L9:U9" si="2">SUM(L6:L8)</f>
         <v>93735</v>
       </c>
-      <c r="M9" s="4">
-        <f>SUM(M6:M8)</f>
+      <c r="M9" s="16">
+        <f t="shared" si="2"/>
         <v>127065</v>
       </c>
-      <c r="N9" s="4">
-        <f>SUM(N6:N8)</f>
+      <c r="N9" s="16">
+        <f t="shared" si="2"/>
         <v>89889</v>
       </c>
-      <c r="O9" s="4">
-        <f>SUM(O6:O8)</f>
+      <c r="O9" s="16">
+        <f t="shared" si="2"/>
         <v>114953</v>
       </c>
-      <c r="P9" s="4">
-        <f>SUM(P6:P8)</f>
+      <c r="P9" s="16">
+        <f t="shared" si="2"/>
         <v>97654</v>
       </c>
-      <c r="Q9" s="4">
-        <f>SUM(Q6:Q8)</f>
+      <c r="Q9" s="16">
+        <f t="shared" si="2"/>
         <v>129070</v>
       </c>
-      <c r="R9" s="4">
-        <f>SUM(R6:R8)</f>
+      <c r="R9" s="16">
+        <f t="shared" si="2"/>
         <v>93216</v>
       </c>
-      <c r="S9" s="4">
-        <f>SUM(S6:S8)</f>
+      <c r="S9" s="16">
+        <f t="shared" si="2"/>
         <v>113373</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="AD9" s="3">
+      <c r="T9" s="16">
+        <f t="shared" si="2"/>
+        <v>98994</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="2"/>
+        <v>136091</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AI9" s="15">
         <v>501683</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AJ9" s="15">
         <v>592705</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1477,17 +1554,26 @@
       <c r="S10" s="4">
         <v>29293</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="T10" s="4">
+        <v>31672</v>
+      </c>
+      <c r="U10" s="4">
+        <v>37756</v>
+      </c>
       <c r="V10" s="4"/>
-      <c r="AD10" s="3">
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AI10" s="3">
         <v>48851</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AJ10" s="3">
         <v>61078</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1528,17 +1614,26 @@
       <c r="S11" s="4">
         <v>16229</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="T11" s="4">
+        <v>17725</v>
+      </c>
+      <c r="U11" s="4">
+        <v>16988</v>
+      </c>
       <c r="V11" s="4"/>
-      <c r="AD11" s="3">
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AI11" s="3">
         <v>35442</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AJ11" s="3">
         <v>43491</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1579,17 +1674,26 @@
       <c r="S12" s="4">
         <v>26811</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="T12" s="4">
+        <v>24647</v>
+      </c>
+      <c r="U12" s="4">
+        <v>28241</v>
+      </c>
       <c r="V12" s="4"/>
-      <c r="AD12" s="3">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AI12" s="3">
         <v>37258</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AJ12" s="3">
         <v>46107</v>
       </c>
     </row>
-    <row r="13" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1630,20 +1734,29 @@
       <c r="S13" s="4">
         <v>26549</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="T13" s="4">
+        <v>29610</v>
+      </c>
+      <c r="U13" s="4">
+        <v>31742</v>
+      </c>
       <c r="V13" s="4"/>
-      <c r="AC13" s="3">
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AH13" s="3">
         <v>40016</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AI13" s="3">
         <v>60558</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AJ13" s="3">
         <v>74568</v>
       </c>
     </row>
-    <row r="14" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1684,20 +1797,29 @@
       <c r="S14" s="4">
         <v>5581</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="T14" s="4">
+        <v>5694</v>
+      </c>
+      <c r="U14" s="4">
+        <v>5438</v>
+      </c>
       <c r="V14" s="4"/>
-      <c r="AC14" s="3">
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AH14" s="3">
         <v>29094</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AI14" s="3">
         <v>31186</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AJ14" s="3">
         <v>32272</v>
       </c>
     </row>
-    <row r="15" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1725,17 +1847,22 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="AC15" s="3">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AH15" s="3">
         <v>4497</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AI15" s="3">
         <v>2311</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AJ15" s="3">
         <v>2841</v>
       </c>
     </row>
-    <row r="16" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
@@ -1780,11 +1907,22 @@
         <f>47001-22020+419</f>
         <v>25400</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="T16" s="4">
+        <f>52178+469-24486</f>
+        <v>28161</v>
+      </c>
+      <c r="U16" s="4">
+        <f>53102+590-29794</f>
+        <v>23898</v>
+      </c>
       <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="2:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:P17" si="2">SUM(L9:L16)</f>
+        <f t="shared" ref="L17:P17" si="3">SUM(L9:L16)</f>
         <v>207176</v>
       </c>
       <c r="M17" s="6">
@@ -1815,15 +1953,15 @@
         <v>247756</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208200</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>234156</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>224790</v>
       </c>
       <c r="Q17" s="6">
@@ -1839,56 +1977,61 @@
         <v>243236</v>
       </c>
       <c r="T17" s="6">
-        <f>+P17*1.05</f>
-        <v>236029.5</v>
+        <f>SUM(T9:T16)</f>
+        <v>236503</v>
       </c>
       <c r="U17" s="6">
-        <f>+Q17*1.05</f>
-        <v>273365.40000000002</v>
+        <f>SUM(U9:U16)</f>
+        <v>280154</v>
       </c>
       <c r="V17" s="6">
         <f>+R17*1.05</f>
         <v>232967.7</v>
       </c>
-      <c r="X17" s="5">
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AC17" s="5">
         <v>76204</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="AD17" s="5">
         <v>101143</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="AE17" s="5">
         <v>158273</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AF17" s="5">
         <v>250266</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AG17" s="5">
         <v>376844</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AH17" s="5">
         <v>509711</v>
       </c>
-      <c r="AD17" s="5">
-        <f>SUM(AD9:AD15)</f>
+      <c r="AI17" s="5">
+        <f>SUM(AI9:AI15)</f>
         <v>717289</v>
       </c>
-      <c r="AE17" s="5">
-        <f>SUM(AE9:AE15)</f>
+      <c r="AJ17" s="5">
+        <f>SUM(AJ9:AJ15)</f>
         <v>853062</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AK17" s="5">
         <v>868867</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AL17" s="5">
         <f>SUM(O17:R17)</f>
         <v>941168</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AM17" s="5">
         <f>SUM(S17:V17)</f>
-        <v>985598.60000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>992860.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1929,42 +2072,51 @@
       <c r="S18" s="4">
         <v>146106</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="T18" s="4">
+        <v>144029</v>
+      </c>
+      <c r="U18" s="4">
+        <v>162524</v>
+      </c>
       <c r="V18" s="4"/>
-      <c r="X18" s="3">
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AC18" s="3">
         <v>23834</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AD18" s="3">
         <v>34355</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AE18" s="3">
         <v>59483</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AF18" s="3">
         <v>107044</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AG18" s="3">
         <v>206929</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AH18" s="3">
         <v>282367</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AI18" s="3">
         <v>421205</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AJ18" s="3">
         <v>539450</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AK18" s="3">
         <v>549695</v>
       </c>
-      <c r="AG18" s="14">
+      <c r="AL18" s="3">
         <f>SUM(O18:R18)</f>
         <v>586323</v>
       </c>
     </row>
-    <row r="19" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1976,19 +2128,19 @@
         <v>61941</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" ref="G19:J19" si="3">G17-G18</f>
+        <f t="shared" ref="G19:J19" si="4">G17-G18</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65107</v>
       </c>
       <c r="K19" s="4"/>
@@ -2001,74 +2153,85 @@
         <v>97751</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" ref="N19:R19" si="4">+N17-N18</f>
+        <f t="shared" ref="N19:R19" si="5">+N17-N18</f>
         <v>69377</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91809</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85126</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104134</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73776</v>
       </c>
       <c r="S19" s="4">
         <f>+S17-S18</f>
         <v>97130</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="4">
+        <f>+T17-T18</f>
+        <v>92474</v>
+      </c>
+      <c r="U19" s="4">
+        <f>+U17-U18</f>
+        <v>117630</v>
+      </c>
       <c r="V19" s="4"/>
-      <c r="X19" s="3">
-        <f t="shared" ref="X19:Y19" si="5">X17-X18</f>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AC19" s="3">
+        <f t="shared" ref="AC19:AD19" si="6">AC17-AC18</f>
         <v>52370</v>
       </c>
-      <c r="Y19" s="3">
-        <f t="shared" si="5"/>
+      <c r="AD19" s="3">
+        <f t="shared" si="6"/>
         <v>66788</v>
       </c>
-      <c r="Z19" s="3">
-        <f t="shared" ref="Z19:AA19" si="6">Z17-Z18</f>
+      <c r="AE19" s="3">
+        <f t="shared" ref="AE19:AF19" si="7">AE17-AE18</f>
         <v>98790</v>
       </c>
-      <c r="AA19" s="3">
-        <f t="shared" si="6"/>
+      <c r="AF19" s="3">
+        <f t="shared" si="7"/>
         <v>143222</v>
       </c>
-      <c r="AB19" s="3">
-        <f>AB17-AB18</f>
+      <c r="AG19" s="3">
+        <f>AG17-AG18</f>
         <v>169915</v>
       </c>
-      <c r="AC19" s="3">
-        <f>AC17-AC18</f>
+      <c r="AH19" s="3">
+        <f>AH17-AH18</f>
         <v>227344</v>
       </c>
-      <c r="AD19" s="3">
-        <f>AD17-AD18</f>
+      <c r="AI19" s="3">
+        <f>AI17-AI18</f>
         <v>296084</v>
       </c>
-      <c r="AE19" s="3">
-        <f t="shared" ref="AE19" si="7">AE17-AE18</f>
+      <c r="AJ19" s="3">
+        <f t="shared" ref="AJ19" si="8">AJ17-AJ18</f>
         <v>313612</v>
       </c>
-      <c r="AF19" s="3">
-        <f>+AF17-AF18</f>
+      <c r="AK19" s="3">
+        <f>+AK17-AK18</f>
         <v>319172</v>
       </c>
-      <c r="AG19" s="3">
-        <f>+AG17-AG18</f>
+      <c r="AL19" s="3">
+        <f>+AL17-AL18</f>
         <v>354845</v>
       </c>
     </row>
-    <row r="20" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2109,42 +2272,51 @@
       <c r="S20" s="4">
         <v>13373</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="T20" s="4">
+        <v>14182</v>
+      </c>
+      <c r="U20" s="4">
+        <v>14662</v>
+      </c>
       <c r="V20" s="4"/>
-      <c r="X20" s="3">
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AC20" s="3">
         <v>10658</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AD20" s="3">
         <v>13788</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AE20" s="3">
         <v>17060</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AF20" s="3">
         <v>22754</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AG20" s="3">
         <v>37435</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AH20" s="3">
         <v>43080</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AI20" s="3">
         <v>57236</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AJ20" s="3">
         <v>55465</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AK20" s="3">
         <v>56744</v>
       </c>
-      <c r="AG20" s="14">
-        <f t="shared" ref="AG20:AG22" si="8">SUM(O20:R20)</f>
+      <c r="AL20" s="3">
+        <f t="shared" ref="AL20:AL22" si="9">SUM(O20:R20)</f>
         <v>52256</v>
       </c>
     </row>
-    <row r="21" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2185,42 +2357,51 @@
       <c r="S21" s="4">
         <v>32696</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="T21" s="4">
+        <v>32471</v>
+      </c>
+      <c r="U21" s="4">
+        <v>42675</v>
+      </c>
       <c r="V21" s="4"/>
-      <c r="X21" s="3">
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AC21" s="3">
         <v>8513</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AD21" s="3">
         <v>11307</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AE21" s="3">
         <v>16314</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AF21" s="3">
         <v>27299</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AG21" s="3">
         <v>39780</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AH21" s="3">
         <v>50673</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AI21" s="3">
         <v>81519</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AJ21" s="3">
         <v>119799</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AK21" s="3">
         <v>103496</v>
       </c>
-      <c r="AG21" s="14">
-        <f t="shared" si="8"/>
+      <c r="AL21" s="3">
+        <f t="shared" si="9"/>
         <v>115141</v>
       </c>
     </row>
-    <row r="22" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2261,42 +2442,51 @@
       <c r="S22" s="4">
         <v>13280</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="T22" s="4">
+        <v>9777</v>
+      </c>
+      <c r="U22" s="4">
+        <v>10851</v>
+      </c>
       <c r="V22" s="4"/>
-      <c r="X22" s="3">
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AC22" s="3">
         <v>7800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AD22" s="3">
         <v>9205</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AE22" s="3">
         <v>12239</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AF22" s="3">
         <v>16241</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AG22" s="3">
         <v>24889</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AH22" s="3">
         <v>28197</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AI22" s="3">
         <v>55224</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AJ22" s="3">
         <v>31922</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AK22" s="3">
         <v>42183</v>
       </c>
-      <c r="AG22" s="14">
-        <f t="shared" si="8"/>
+      <c r="AL22" s="3">
+        <f t="shared" si="9"/>
         <v>41985</v>
       </c>
     </row>
-    <row r="23" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
@@ -2315,86 +2505,97 @@
         <v>45559</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" ref="K23:R23" si="9">SUM(K20:K22)</f>
+        <f t="shared" ref="K23:R23" si="10">SUM(K20:K22)</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48100</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54476</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="10">SUM(N20:N22)</f>
+        <f t="shared" ref="N23" si="11">SUM(N20:N22)</f>
         <v>51643</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44809</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49111</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58532</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56930</v>
       </c>
       <c r="S23" s="4">
         <f>SUM(S20:S22)</f>
         <v>59349</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="T23" s="4">
+        <f>SUM(T20:T22)</f>
+        <v>56430</v>
+      </c>
+      <c r="U23" s="4">
+        <f>SUM(U20:U22)</f>
+        <v>68188</v>
+      </c>
       <c r="V23" s="4"/>
-      <c r="X23" s="4">
-        <f t="shared" ref="X23:Y23" si="11">SUM(X20:X22)</f>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AC23" s="4">
+        <f t="shared" ref="AC23:AD23" si="12">SUM(AC20:AC22)</f>
         <v>26971</v>
       </c>
-      <c r="Y23" s="4">
-        <f t="shared" si="11"/>
+      <c r="AD23" s="4">
+        <f t="shared" si="12"/>
         <v>34300</v>
       </c>
-      <c r="Z23" s="4">
-        <f t="shared" ref="Z23:AA23" si="12">SUM(Z20:Z22)</f>
+      <c r="AE23" s="4">
+        <f t="shared" ref="AE23:AF23" si="13">SUM(AE20:AE22)</f>
         <v>45613</v>
-      </c>
-      <c r="AA23" s="4">
-        <f t="shared" si="12"/>
-        <v>66294</v>
-      </c>
-      <c r="AB23" s="4">
-        <f>SUM(AB20:AB22)</f>
-        <v>102104</v>
-      </c>
-      <c r="AC23" s="4">
-        <f>SUM(AC20:AC22)</f>
-        <v>121950</v>
-      </c>
-      <c r="AD23" s="4">
-        <f>SUM(AD20:AD22)</f>
-        <v>193979</v>
-      </c>
-      <c r="AE23" s="4">
-        <f t="shared" ref="AE23:AG23" si="13">SUM(AE20:AE22)</f>
-        <v>207186</v>
       </c>
       <c r="AF23" s="4">
         <f t="shared" si="13"/>
+        <v>66294</v>
+      </c>
+      <c r="AG23" s="4">
+        <f>SUM(AG20:AG22)</f>
+        <v>102104</v>
+      </c>
+      <c r="AH23" s="4">
+        <f>SUM(AH20:AH22)</f>
+        <v>121950</v>
+      </c>
+      <c r="AI23" s="4">
+        <f>SUM(AI20:AI22)</f>
+        <v>193979</v>
+      </c>
+      <c r="AJ23" s="4">
+        <f t="shared" ref="AJ23:AL23" si="14">SUM(AJ20:AJ22)</f>
+        <v>207186</v>
+      </c>
+      <c r="AK23" s="4">
+        <f t="shared" si="14"/>
         <v>202423</v>
       </c>
-      <c r="AG23" s="4">
-        <f t="shared" si="13"/>
+      <c r="AL23" s="4">
+        <f t="shared" si="14"/>
         <v>209382</v>
       </c>
     </row>
-    <row r="24" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
@@ -2413,86 +2614,97 @@
         <v>19548</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" ref="K24:R24" si="14">K19-K23</f>
+        <f t="shared" ref="K24:R24" si="15">K19-K23</f>
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27866</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43275</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" ref="N24" si="15">N19-N23</f>
+        <f t="shared" ref="N24" si="16">N19-N23</f>
         <v>17734</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47000</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36015</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45602</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16846</v>
       </c>
       <c r="S24" s="4">
         <f>S19-S23</f>
         <v>37781</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="T24" s="4">
+        <f>T19-T23</f>
+        <v>36044</v>
+      </c>
+      <c r="U24" s="4">
+        <f>U19-U23</f>
+        <v>49442</v>
+      </c>
       <c r="V24" s="4"/>
-      <c r="X24" s="4">
-        <f t="shared" ref="X24:Y24" si="16">X19-X23</f>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AC24" s="4">
+        <f t="shared" ref="AC24:AD24" si="17">AC19-AC23</f>
         <v>25399</v>
       </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="16"/>
+      <c r="AD24" s="4">
+        <f t="shared" si="17"/>
         <v>32488</v>
       </c>
-      <c r="Z24" s="4">
-        <f t="shared" ref="Z24:AA24" si="17">Z19-Z23</f>
+      <c r="AE24" s="4">
+        <f t="shared" ref="AE24:AF24" si="18">AE19-AE23</f>
         <v>53177</v>
-      </c>
-      <c r="AA24" s="4">
-        <f t="shared" si="17"/>
-        <v>76928</v>
-      </c>
-      <c r="AB24" s="4">
-        <f>AB19-AB23</f>
-        <v>67811</v>
-      </c>
-      <c r="AC24" s="4">
-        <f>AC19-AC23</f>
-        <v>105394</v>
-      </c>
-      <c r="AD24" s="4">
-        <f>AD19-AD23</f>
-        <v>102105</v>
-      </c>
-      <c r="AE24" s="4">
-        <f t="shared" ref="AE24:AG24" si="18">AE19-AE23</f>
-        <v>106426</v>
       </c>
       <c r="AF24" s="4">
         <f t="shared" si="18"/>
+        <v>76928</v>
+      </c>
+      <c r="AG24" s="4">
+        <f>AG19-AG23</f>
+        <v>67811</v>
+      </c>
+      <c r="AH24" s="4">
+        <f>AH19-AH23</f>
+        <v>105394</v>
+      </c>
+      <c r="AI24" s="4">
+        <f>AI19-AI23</f>
+        <v>102105</v>
+      </c>
+      <c r="AJ24" s="4">
+        <f t="shared" ref="AJ24:AL24" si="19">AJ19-AJ23</f>
+        <v>106426</v>
+      </c>
+      <c r="AK24" s="4">
+        <f t="shared" si="19"/>
         <v>116749</v>
       </c>
-      <c r="AG24" s="4">
-        <f t="shared" si="18"/>
+      <c r="AL24" s="4">
+        <f t="shared" si="19"/>
         <v>145463</v>
       </c>
     </row>
-    <row r="25" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2543,51 +2755,60 @@
         <f>-1478-2188+257</f>
         <v>-3409</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="T25" s="4">
+        <v>-2427</v>
+      </c>
+      <c r="U25" s="4">
+        <v>-2485</v>
+      </c>
       <c r="V25" s="4"/>
-      <c r="X25" s="3">
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AC25" s="3">
         <f>9455-2750+2486</f>
         <v>9191</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AD25" s="3">
         <f>52254-1946+2058</f>
         <v>52366</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AE25" s="3">
         <f>8559-2671+6086</f>
         <v>11974</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AF25" s="3">
         <f>30495-3566+4160</f>
         <v>31089</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AG25" s="3">
         <f>44106-5190+221</f>
         <v>39137</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AH25" s="3">
         <f>72956-5180+7439</f>
         <v>75215</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AI25" s="3">
         <f>72794-4476+7582</f>
         <v>75900</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AJ25" s="3">
         <f>-15702-4909+10523</f>
         <v>-10088</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AK25" s="3">
         <f>-11071-5918+5823</f>
         <v>-11166</v>
       </c>
-      <c r="AG25" s="14">
-        <f t="shared" ref="AG25" si="19">SUM(O25:R25)</f>
+      <c r="AL25" s="3">
+        <f t="shared" ref="AL25" si="20">SUM(O25:R25)</f>
         <v>-11754</v>
       </c>
     </row>
-    <row r="26" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
@@ -2599,99 +2820,110 @@
         <v>-3182</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" ref="G26:J26" si="20">G24+G25</f>
+        <f t="shared" ref="G26:J26" si="21">G24+G25</f>
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-16729</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4">
-        <f t="shared" ref="L26:R26" si="21">+L24+L25</f>
+        <f t="shared" ref="L26:R26" si="22">+L24+L25</f>
         <v>-13030</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>58703</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27802</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40682</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40688</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40409</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11930</v>
       </c>
       <c r="S26" s="4">
         <f>+S24+S25</f>
         <v>34372</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
+      <c r="T26" s="4">
+        <f>+T24+T25</f>
+        <v>33617</v>
+      </c>
+      <c r="U26" s="4">
+        <f>+U24+U25</f>
+        <v>46957</v>
+      </c>
       <c r="V26" s="4"/>
-      <c r="X26" s="4">
-        <f t="shared" ref="X26" si="22">X24+X25</f>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AC26" s="4">
+        <f t="shared" ref="AC26" si="23">AC24+AC25</f>
         <v>34590</v>
       </c>
-      <c r="Y26" s="4">
-        <f t="shared" ref="Y26:Z26" si="23">Y24+Y25</f>
+      <c r="AD26" s="4">
+        <f t="shared" ref="AD26:AE26" si="24">AD24+AD25</f>
         <v>84854</v>
       </c>
-      <c r="Z26" s="4">
-        <f t="shared" si="23"/>
+      <c r="AE26" s="4">
+        <f t="shared" si="24"/>
         <v>65151</v>
       </c>
-      <c r="AA26" s="4">
-        <f t="shared" ref="AA26:AB26" si="24">AA24+AA25</f>
+      <c r="AF26" s="4">
+        <f t="shared" ref="AF26:AG26" si="25">AF24+AF25</f>
         <v>108017</v>
       </c>
-      <c r="AB26" s="4">
-        <f t="shared" si="24"/>
+      <c r="AG26" s="4">
+        <f t="shared" si="25"/>
         <v>106948</v>
       </c>
-      <c r="AC26" s="4">
-        <f t="shared" ref="AC26:AD26" si="25">AC24+AC25</f>
+      <c r="AH26" s="4">
+        <f t="shared" ref="AH26:AI26" si="26">AH24+AH25</f>
         <v>180609</v>
       </c>
-      <c r="AD26" s="4">
-        <f t="shared" si="25"/>
+      <c r="AI26" s="4">
+        <f t="shared" si="26"/>
         <v>178005</v>
       </c>
-      <c r="AE26" s="4">
-        <f t="shared" ref="AE26:AG26" si="26">AE24+AE25</f>
+      <c r="AJ26" s="4">
+        <f t="shared" ref="AJ26:AL26" si="27">AJ24+AJ25</f>
         <v>96338</v>
       </c>
-      <c r="AF26" s="4">
-        <f t="shared" si="26"/>
+      <c r="AK26" s="4">
+        <f t="shared" si="27"/>
         <v>105583</v>
       </c>
-      <c r="AG26" s="4">
-        <f t="shared" si="26"/>
+      <c r="AL26" s="4">
+        <f t="shared" si="27"/>
         <v>133709</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2739,48 +2971,57 @@
         <f>10063-1505</f>
         <v>8558</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
+      <c r="T27" s="4">
+        <v>7379</v>
+      </c>
+      <c r="U27" s="4">
+        <v>11149</v>
+      </c>
       <c r="V27" s="4"/>
-      <c r="X27" s="4">
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AC27" s="4">
         <f>6416+1590+59</f>
         <v>8065</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="AD27" s="4">
         <f>8449+1730-171</f>
         <v>10008</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AE27" s="4">
         <f>13776+5027-2449</f>
         <v>16354</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AF27" s="4">
         <f>18199+20792-2681</f>
         <v>36310</v>
       </c>
-      <c r="AB27" s="4">
+      <c r="AG27" s="4">
         <f>16553-566-7652+286</f>
         <v>8621</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AH27" s="4">
         <v>17212</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AI27" s="4">
         <v>29588</v>
       </c>
-      <c r="AE27" s="4">
+      <c r="AJ27" s="4">
         <v>26815</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AK27" s="3">
         <f>15549+8063</f>
         <v>23612</v>
       </c>
-      <c r="AG27" s="14">
-        <f t="shared" ref="AG27" si="27">SUM(O27:R27)</f>
+      <c r="AL27" s="3">
+        <f t="shared" ref="AL27" si="28">SUM(O27:R27)</f>
         <v>30975</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
@@ -2789,99 +3030,110 @@
         <v>-4239</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" ref="G28:J28" si="28">G26+G27</f>
+        <f t="shared" ref="G28:J28" si="29">G26+G27</f>
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-15526</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:R28" si="29">+L26-L27</f>
+        <f t="shared" ref="L28:U28" si="30">+L26-L27</f>
         <v>-17704</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>55157</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>26138</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>31810</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>30278</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>37646</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="S28" s="4">
-        <f>+S26-S27</f>
+        <f t="shared" si="30"/>
         <v>25814</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="T28" s="4">
+        <f t="shared" si="30"/>
+        <v>26238</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="30"/>
+        <v>35808</v>
+      </c>
       <c r="V28" s="4"/>
-      <c r="X28" s="4">
-        <f t="shared" ref="X28:Y28" si="30">+X26-X27</f>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AC28" s="4">
+        <f t="shared" ref="AC28:AD28" si="31">+AC26-AC27</f>
         <v>26525</v>
       </c>
-      <c r="Y28" s="4">
-        <f t="shared" si="30"/>
+      <c r="AD28" s="4">
+        <f t="shared" si="31"/>
         <v>74846</v>
       </c>
-      <c r="Z28" s="4">
-        <f t="shared" ref="Z28:AA28" si="31">+Z26-Z27</f>
+      <c r="AE28" s="4">
+        <f t="shared" ref="AE28:AF28" si="32">+AE26-AE27</f>
         <v>48797</v>
       </c>
-      <c r="AA28" s="4">
-        <f t="shared" si="31"/>
+      <c r="AF28" s="4">
+        <f t="shared" si="32"/>
         <v>71707</v>
       </c>
-      <c r="AB28" s="4">
-        <f>+AB26-AB27</f>
+      <c r="AG28" s="4">
+        <f t="shared" ref="AG28:AL28" si="33">+AG26-AG27</f>
         <v>98327</v>
       </c>
-      <c r="AC28" s="4">
-        <f>+AC26-AC27</f>
+      <c r="AH28" s="4">
+        <f t="shared" si="33"/>
         <v>163397</v>
       </c>
-      <c r="AD28" s="4">
-        <f>+AD26-AD27</f>
+      <c r="AI28" s="4">
+        <f t="shared" si="33"/>
         <v>148417</v>
       </c>
-      <c r="AE28" s="4">
-        <f>+AE26-AE27</f>
+      <c r="AJ28" s="4">
+        <f t="shared" si="33"/>
         <v>69523</v>
       </c>
-      <c r="AF28" s="4">
-        <f>+AF26-AF27</f>
+      <c r="AK28" s="4">
+        <f t="shared" si="33"/>
         <v>81971</v>
       </c>
-      <c r="AG28" s="4">
-        <f>+AG26-AG27</f>
+      <c r="AL28" s="4">
+        <f t="shared" si="33"/>
         <v>102734</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
@@ -2895,82 +3147,93 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f>+L28/L30</f>
+        <f t="shared" ref="L29:U29" si="34">+L28/L30</f>
         <v>-0.83651483651483649</v>
       </c>
       <c r="M29" s="1">
-        <f>+M28/M30</f>
+        <f t="shared" si="34"/>
         <v>2.6375765110941085</v>
       </c>
       <c r="N29" s="1">
-        <f>+N28/N30</f>
+        <f t="shared" si="34"/>
         <v>1.2517000287328799</v>
       </c>
       <c r="O29" s="1">
-        <f>+O28/O30</f>
+        <f t="shared" si="34"/>
         <v>1.5435753105590062</v>
       </c>
       <c r="P29" s="1">
-        <f>+P28/P30</f>
+        <f t="shared" si="34"/>
         <v>1.4751047452012083</v>
       </c>
       <c r="Q29" s="1">
-        <f>+Q28/Q30</f>
+        <f t="shared" si="34"/>
         <v>1.8525663107130554</v>
       </c>
       <c r="R29" s="1">
-        <f>+R28/R30</f>
+        <f t="shared" si="34"/>
         <v>0.15015015015015015</v>
       </c>
       <c r="S29" s="1">
-        <f>+S28/S30</f>
+        <f t="shared" si="34"/>
         <v>1.3173768818576168</v>
       </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
+      <c r="T29" s="1">
+        <f t="shared" si="34"/>
+        <v>1.3579339612876513</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="34"/>
+        <v>1.865</v>
+      </c>
       <c r="V29" s="1"/>
-      <c r="X29" s="1">
-        <f t="shared" ref="X29:Y29" si="32">X28/X30</f>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AC29" s="1">
+        <f t="shared" ref="AC29:AD29" si="35">AC28/AC30</f>
         <v>10.61</v>
       </c>
-      <c r="Y29" s="1">
-        <f t="shared" si="32"/>
+      <c r="AD29" s="1">
+        <f t="shared" si="35"/>
         <v>29.213895394223265</v>
       </c>
-      <c r="Z29" s="1">
-        <f t="shared" ref="Z29:AA29" si="33">Z28/Z30</f>
+      <c r="AE29" s="1">
+        <f t="shared" ref="AE29:AF29" si="36">AE28/AE30</f>
         <v>18.965021375825884</v>
       </c>
-      <c r="AA29" s="1">
-        <f t="shared" si="33"/>
+      <c r="AF29" s="1">
+        <f t="shared" si="36"/>
         <v>27.473946360153256</v>
       </c>
-      <c r="AB29" s="1">
-        <f>AB28/AB30</f>
+      <c r="AG29" s="1">
+        <f>AG28/AG30</f>
         <v>4.6849151896321706</v>
       </c>
-      <c r="AC29" s="1">
-        <f>AC28/AC30</f>
+      <c r="AH29" s="1">
+        <f>AH28/AH30</f>
         <v>7.65468940316687</v>
       </c>
-      <c r="AD29" s="1">
-        <f>AD28/AD30</f>
+      <c r="AI29" s="1">
+        <f>AI28/AI30</f>
         <v>6.7517514329906287</v>
       </c>
-      <c r="AE29" s="1">
-        <f t="shared" ref="AE29:AG29" si="34">AE28/AE30</f>
+      <c r="AJ29" s="1">
+        <f t="shared" ref="AJ29:AL29" si="37">AJ28/AJ30</f>
         <v>3.191031348969569</v>
       </c>
-      <c r="AF29" s="1">
-        <f t="shared" si="34"/>
+      <c r="AK29" s="1">
+        <f t="shared" si="37"/>
         <v>3.8823055792365255</v>
       </c>
-      <c r="AG29" s="1">
-        <f t="shared" si="34"/>
+      <c r="AL29" s="1">
+        <f t="shared" si="37"/>
         <v>5.0461840731872041</v>
       </c>
     </row>
-    <row r="30" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -3010,197 +3273,213 @@
       <c r="S30" s="3">
         <v>19595</v>
       </c>
-      <c r="X30" s="3">
+      <c r="T30" s="3">
+        <v>19322</v>
+      </c>
+      <c r="U30" s="3">
+        <v>19200</v>
+      </c>
+      <c r="AC30" s="3">
         <v>2500</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="AD30" s="3">
         <v>2562</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="AE30" s="3">
         <v>2573</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AF30" s="3">
         <v>2610</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AG30" s="3">
         <v>20988</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AH30" s="3">
         <v>21346</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AI30" s="3">
         <v>21982</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AJ30" s="3">
         <v>21787</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AK30" s="3">
         <v>21114</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AL30" s="3">
         <f>AVERAGE(O30:R30)</f>
         <v>20358.75</v>
       </c>
     </row>
-    <row r="32" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:39" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8">
         <f>J17/F17-1</f>
         <v>8.8887110114997725E-2</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9">
-        <f>P17/L17-1</f>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8">
+        <f t="shared" ref="P32:V32" si="38">P17/L17-1</f>
         <v>8.5019500328223252E-2</v>
       </c>
-      <c r="Q32" s="9">
-        <f>Q17/M17-1</f>
+      <c r="Q32" s="8">
+        <f t="shared" si="38"/>
         <v>5.0824198001259369E-2</v>
       </c>
-      <c r="R32" s="9">
-        <f>R17/N17-1</f>
+      <c r="R32" s="8">
+        <f t="shared" si="38"/>
         <v>6.567723342939491E-2</v>
       </c>
-      <c r="S32" s="9">
-        <f>S17/O17-1</f>
+      <c r="S32" s="8">
+        <f t="shared" si="38"/>
         <v>3.8777567092024068E-2</v>
       </c>
-      <c r="T32" s="9">
-        <f>T17/P17-1</f>
+      <c r="T32" s="8">
+        <f t="shared" si="38"/>
+        <v>5.2106410427510186E-2</v>
+      </c>
+      <c r="U32" s="8">
+        <f t="shared" si="38"/>
+        <v>7.6075099482231456E-2</v>
+      </c>
+      <c r="V32" s="8">
+        <f t="shared" si="38"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U32" s="9">
-        <f>U17/Q17-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="V32" s="9">
-        <f>V17/R17-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Y32" s="11">
-        <f>Y17/X17-1</f>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AD32" s="10">
+        <f t="shared" ref="AD32:AM32" si="39">AD17/AC17-1</f>
         <v>0.32726628523437085</v>
       </c>
-      <c r="Z32" s="11">
-        <f>Z17/Y17-1</f>
+      <c r="AE32" s="10">
+        <f t="shared" si="39"/>
         <v>0.56484383496633472</v>
       </c>
-      <c r="AA32" s="11">
-        <f>AA17/Z17-1</f>
+      <c r="AF32" s="10">
+        <f t="shared" si="39"/>
         <v>0.58122990023566867</v>
       </c>
-      <c r="AB32" s="11">
-        <f>AB17/AA17-1</f>
+      <c r="AG32" s="10">
+        <f t="shared" si="39"/>
         <v>0.50577385661655994</v>
       </c>
-      <c r="AC32" s="11">
-        <f>AC17/AB17-1</f>
+      <c r="AH32" s="10">
+        <f t="shared" si="39"/>
         <v>0.35257825519313024</v>
       </c>
-      <c r="AD32" s="11">
-        <f>AD17/AC17-1</f>
+      <c r="AI32" s="10">
+        <f t="shared" si="39"/>
         <v>0.40724645926809511</v>
       </c>
-      <c r="AE32" s="11">
-        <f>AE17/AD17-1</f>
+      <c r="AJ32" s="10">
+        <f t="shared" si="39"/>
         <v>0.18928632671071211</v>
       </c>
-      <c r="AF32" s="11">
-        <f>AF17/AE17-1</f>
+      <c r="AK32" s="10">
+        <f t="shared" si="39"/>
         <v>1.8527375501429022E-2</v>
       </c>
-      <c r="AG32" s="11">
-        <f>AG17/AF17-1</f>
+      <c r="AL32" s="10">
+        <f t="shared" si="39"/>
         <v>8.3212965850929965E-2</v>
       </c>
-      <c r="AH32" s="11">
-        <f>AH17/AG17-1</f>
-        <v>4.720793737143647E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM32" s="10">
+        <f t="shared" si="39"/>
+        <v>5.4923988065892493E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="X33" s="11">
-        <f t="shared" ref="X33" si="35">+X19/X17</f>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AC33" s="10">
+        <f t="shared" ref="AC33" si="40">+AC19/AC17</f>
         <v>0.68723426591779957</v>
       </c>
-      <c r="Y33" s="11">
-        <f t="shared" ref="Y33:Z33" si="36">+Y19/Y17</f>
+      <c r="AD33" s="10">
+        <f t="shared" ref="AD33" si="41">+AD19/AD17</f>
         <v>0.66033240066045107</v>
       </c>
-      <c r="Z33" s="11">
-        <f>+Z19/Z17</f>
+      <c r="AE33" s="10">
+        <f>+AE19/AE17</f>
         <v>0.62417468551174238</v>
       </c>
-      <c r="AA33" s="11">
-        <f>+AA19/AA17</f>
+      <c r="AF33" s="10">
+        <f>+AF19/AF17</f>
         <v>0.57227909504287433</v>
       </c>
-      <c r="AB33" s="11">
-        <f>+AB19/AB17</f>
+      <c r="AG33" s="10">
+        <f>+AG19/AG17</f>
         <v>0.45088949273439405</v>
       </c>
-      <c r="AC33" s="11">
-        <f>+AC19/AC17</f>
+      <c r="AH33" s="10">
+        <f>+AH19/AH17</f>
         <v>0.44602529668773089</v>
       </c>
-      <c r="AD33" s="11">
-        <f t="shared" ref="AD33:AH33" si="37">+AD19/AD17</f>
+      <c r="AI33" s="10">
+        <f t="shared" ref="AI33:AM33" si="42">+AI19/AI17</f>
         <v>0.41278201673244674</v>
       </c>
-      <c r="AE33" s="11">
-        <f t="shared" si="37"/>
+      <c r="AJ33" s="10">
+        <f t="shared" si="42"/>
         <v>0.36763095765606718</v>
       </c>
-      <c r="AF33" s="11">
-        <f t="shared" si="37"/>
+      <c r="AK33" s="10">
+        <f t="shared" si="42"/>
         <v>0.36734275786742965</v>
       </c>
-      <c r="AG33" s="11">
-        <f t="shared" si="37"/>
+      <c r="AL33" s="10">
+        <f t="shared" si="42"/>
         <v>0.37702620573585161</v>
       </c>
-      <c r="AH33" s="11">
-        <f t="shared" si="37"/>
+      <c r="AM33" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>82</v>
       </c>
@@ -3209,7 +3488,7 @@
         <v>821936</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>68</v>
       </c>
@@ -3218,7 +3497,7 @@
         <v>1029873</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>69</v>
       </c>
@@ -3227,7 +3506,7 @@
         <v>275965</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>70</v>
       </c>
@@ -3235,7 +3514,7 @@
         <v>194222</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>71</v>
       </c>
@@ -3244,7 +3523,7 @@
         <v>284994</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>72</v>
       </c>
@@ -3253,7 +3532,7 @@
         <v>1785054</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>73</v>
       </c>
@@ -3262,7 +3541,7 @@
         <v>207937</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -3271,7 +3550,7 @@
         <v>61147</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>76</v>
       </c>
@@ -3279,7 +3558,7 @@
         <v>339279</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>75</v>
       </c>
@@ -3287,7 +3566,7 @@
         <v>12449</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>74</v>
       </c>
@@ -3296,7 +3575,7 @@
         <v>78697</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>79</v>
       </c>
@@ -3304,7 +3583,7 @@
         <v>32185</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>78</v>
       </c>
@@ -3313,7 +3592,7 @@
         <v>1053360</v>
       </c>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>77</v>
       </c>
@@ -3322,7 +3601,7 @@
         <v>1785054</v>
       </c>
     </row>
-    <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>44</v>
       </c>
@@ -3350,23 +3629,28 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-      <c r="AC53" s="3">
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AH53" s="3">
         <v>180607</v>
       </c>
-      <c r="AD53" s="3">
+      <c r="AI53" s="3">
         <v>231786</v>
       </c>
-      <c r="AE53" s="3">
+      <c r="AJ53" s="3">
         <v>142759</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AK53" s="3">
         <v>199752</v>
       </c>
-      <c r="AG53" s="3">
+      <c r="AL53" s="3">
         <v>182593</v>
       </c>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -3380,7 +3664,7 @@
         <v>11939</v>
       </c>
     </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>81</v>
       </c>
@@ -3393,10 +3677,23 @@
         <v>21697</v>
       </c>
     </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="57" spans="2:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="4">
         <v>224955</v>
       </c>
@@ -3409,6 +3706,18 @@
       <c r="S57" s="4">
         <v>198162</v>
       </c>
+      <c r="T57" s="4">
+        <v>197991</v>
+      </c>
+      <c r="U57" s="4">
+        <v>194320</v>
+      </c>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
